--- a/team_specific_matrix/Western Ill._A.xlsx
+++ b/team_specific_matrix/Western Ill._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2334801762114538</v>
+        <v>0.24</v>
       </c>
       <c r="C2">
-        <v>0.4537444933920705</v>
+        <v>0.4514285714285714</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03083700440528634</v>
+        <v>0.02571428571428571</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1365638766519824</v>
+        <v>0.1371428571428571</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.145374449339207</v>
+        <v>0.1457142857142857</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009523809523809525</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="C3">
-        <v>0.02857142857142857</v>
+        <v>0.02484472049689441</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05714285714285714</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6952380952380952</v>
+        <v>0.6645962732919255</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2095238095238095</v>
+        <v>0.2608695652173913</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08695652173913043</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5652173913043478</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3478260869565217</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05555555555555555</v>
+        <v>0.05612244897959184</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006944444444444444</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0625</v>
+        <v>0.07653061224489796</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2916666666666667</v>
+        <v>0.2755102040816326</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02777777777777778</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2430555555555556</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="R6">
-        <v>0.05555555555555555</v>
+        <v>0.05102040816326531</v>
       </c>
       <c r="S6">
-        <v>0.2569444444444444</v>
+        <v>0.2959183673469388</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08</v>
+        <v>0.08609271523178808</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04</v>
+        <v>0.04635761589403974</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.19</v>
+        <v>0.1854304635761589</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.18</v>
+        <v>0.1721854304635762</v>
       </c>
       <c r="R7">
-        <v>0.05</v>
+        <v>0.04635761589403974</v>
       </c>
       <c r="S7">
-        <v>0.42</v>
+        <v>0.4172185430463576</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07926829268292683</v>
+        <v>0.09563409563409564</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01219512195121951</v>
+        <v>0.01247401247401247</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.002079002079002079</v>
       </c>
       <c r="F8">
-        <v>0.03658536585365853</v>
+        <v>0.04573804573804574</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1676829268292683</v>
+        <v>0.1559251559251559</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01219512195121951</v>
+        <v>0.01455301455301455</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.225609756097561</v>
+        <v>0.1912681912681913</v>
       </c>
       <c r="R8">
-        <v>0.09146341463414634</v>
+        <v>0.09355509355509356</v>
       </c>
       <c r="S8">
-        <v>0.375</v>
+        <v>0.3887733887733888</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07368421052631578</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02105263157894737</v>
+        <v>0.02</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03157894736842105</v>
+        <v>0.04</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1894736842105263</v>
+        <v>0.18</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02105263157894737</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1894736842105263</v>
+        <v>0.16</v>
       </c>
       <c r="R9">
-        <v>0.09473684210526316</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="S9">
-        <v>0.3789473684210526</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1166180758017493</v>
+        <v>0.1237762237762238</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01457725947521866</v>
+        <v>0.01468531468531468</v>
       </c>
       <c r="E10">
-        <v>0.0009718172983479105</v>
+        <v>0.0006993006993006993</v>
       </c>
       <c r="F10">
-        <v>0.07482993197278912</v>
+        <v>0.06573426573426573</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1564625850340136</v>
+        <v>0.1552447552447553</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01457725947521866</v>
+        <v>0.01468531468531468</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2351797862001944</v>
+        <v>0.2237762237762238</v>
       </c>
       <c r="R10">
-        <v>0.06122448979591837</v>
+        <v>0.06013986013986014</v>
       </c>
       <c r="S10">
-        <v>0.32555879494655</v>
+        <v>0.3412587412587413</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1172413793103448</v>
+        <v>0.1341991341991342</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07586206896551724</v>
+        <v>0.08225108225108226</v>
       </c>
       <c r="K11">
-        <v>0.1931034482758621</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L11">
-        <v>0.593103448275862</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02068965517241379</v>
+        <v>0.02164502164502164</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7415730337078652</v>
+        <v>0.7279411764705882</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2247191011235955</v>
+        <v>0.25</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03370786516853932</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7142857142857143</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2142857142857143</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07142857142857142</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02040816326530612</v>
+        <v>0.01395348837209302</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1972789115646258</v>
+        <v>0.172093023255814</v>
       </c>
       <c r="I15">
-        <v>0.03401360544217687</v>
+        <v>0.05116279069767442</v>
       </c>
       <c r="J15">
-        <v>0.4013605442176871</v>
+        <v>0.386046511627907</v>
       </c>
       <c r="K15">
-        <v>0.04761904761904762</v>
+        <v>0.05581395348837209</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04081632653061224</v>
+        <v>0.05581395348837209</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2585034013605442</v>
+        <v>0.2604651162790698</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01754385964912281</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1754385964912281</v>
+        <v>0.1705882352941177</v>
       </c>
       <c r="I16">
-        <v>0.05263157894736842</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="J16">
-        <v>0.5175438596491229</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="K16">
-        <v>0.04385964912280702</v>
+        <v>0.04705882352941176</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06140350877192982</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.131578947368421</v>
+        <v>0.1529411764705882</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02083333333333333</v>
+        <v>0.01606425702811245</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1848958333333333</v>
+        <v>0.1907630522088354</v>
       </c>
       <c r="I17">
-        <v>0.0703125</v>
+        <v>0.07429718875502007</v>
       </c>
       <c r="J17">
-        <v>0.4739583333333333</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="K17">
-        <v>0.04166666666666666</v>
+        <v>0.06425702811244979</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02083333333333333</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06770833333333333</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1197916666666667</v>
+        <v>0.1184738955823293</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.008849557522123894</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2035398230088496</v>
+        <v>0.1779141104294479</v>
       </c>
       <c r="I18">
-        <v>0.05309734513274336</v>
+        <v>0.049079754601227</v>
       </c>
       <c r="J18">
-        <v>0.5221238938053098</v>
+        <v>0.5153374233128835</v>
       </c>
       <c r="K18">
-        <v>0.03539823008849557</v>
+        <v>0.04294478527607362</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.008849557522123894</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05309734513274336</v>
+        <v>0.049079754601227</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1150442477876106</v>
+        <v>0.147239263803681</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.00364963503649635</v>
+        <v>0.006344171292624901</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2250608272506083</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="I19">
-        <v>0.06447688564476886</v>
+        <v>0.06582077716098335</v>
       </c>
       <c r="J19">
-        <v>0.4014598540145985</v>
+        <v>0.3901665344964314</v>
       </c>
       <c r="K19">
-        <v>0.1009732360097324</v>
+        <v>0.09912767644726407</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02554744525547445</v>
+        <v>0.02141157811260904</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.072992700729927</v>
+        <v>0.06661379857256146</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1058394160583942</v>
+        <v>0.119746233148295</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Western Ill._A.xlsx
+++ b/team_specific_matrix/Western Ill._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.24</v>
+        <v>0.2338308457711443</v>
       </c>
       <c r="C2">
-        <v>0.4514285714285714</v>
+        <v>0.4577114427860697</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02571428571428571</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1371428571428571</v>
+        <v>0.1417910447761194</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1457142857142857</v>
+        <v>0.1368159203980099</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006211180124223602</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="C3">
-        <v>0.02484472049689441</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04347826086956522</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6645962732919255</v>
+        <v>0.656084656084656</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2608695652173913</v>
+        <v>0.2751322751322751</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5882352941176471</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3529411764705883</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05612244897959184</v>
+        <v>0.06986899563318777</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01020408163265306</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07653061224489796</v>
+        <v>0.07423580786026202</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2755102040816326</v>
+        <v>0.2838427947598253</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03061224489795918</v>
+        <v>0.02620087336244541</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2040816326530612</v>
+        <v>0.1965065502183406</v>
       </c>
       <c r="R6">
-        <v>0.05102040816326531</v>
+        <v>0.04803493449781659</v>
       </c>
       <c r="S6">
-        <v>0.2959183673469388</v>
+        <v>0.2925764192139738</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08609271523178808</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01986754966887417</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04635761589403974</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1854304635761589</v>
+        <v>0.1845238095238095</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02649006622516556</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1721854304635762</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="R7">
-        <v>0.04635761589403974</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="S7">
-        <v>0.4172185430463576</v>
+        <v>0.4345238095238095</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09563409563409564</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01247401247401247</v>
+        <v>0.01318267419962335</v>
       </c>
       <c r="E8">
-        <v>0.002079002079002079</v>
+        <v>0.001883239171374765</v>
       </c>
       <c r="F8">
-        <v>0.04573804573804574</v>
+        <v>0.04896421845574388</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1559251559251559</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01455301455301455</v>
+        <v>0.01318267419962335</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1912681912681913</v>
+        <v>0.192090395480226</v>
       </c>
       <c r="R8">
-        <v>0.09355509355509356</v>
+        <v>0.0903954802259887</v>
       </c>
       <c r="S8">
-        <v>0.3887733887733888</v>
+        <v>0.391713747645951</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08666666666666667</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.18</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02666666666666667</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.16</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="R9">
-        <v>0.1066666666666667</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="S9">
-        <v>0.38</v>
+        <v>0.3470588235294118</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1237762237762238</v>
+        <v>0.1270543615676359</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01468531468531468</v>
+        <v>0.01390644753476612</v>
       </c>
       <c r="E10">
-        <v>0.0006993006993006993</v>
+        <v>0.0006321112515802782</v>
       </c>
       <c r="F10">
-        <v>0.06573426573426573</v>
+        <v>0.06890012642225031</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1552447552447553</v>
+        <v>0.152338811630847</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01468531468531468</v>
+        <v>0.01517067003792667</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2237762237762238</v>
+        <v>0.2243994943109987</v>
       </c>
       <c r="R10">
-        <v>0.06013986013986014</v>
+        <v>0.06005056890012642</v>
       </c>
       <c r="S10">
-        <v>0.3412587412587413</v>
+        <v>0.3375474083438685</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1341991341991342</v>
+        <v>0.1400778210116732</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08225108225108226</v>
+        <v>0.08171206225680934</v>
       </c>
       <c r="K11">
-        <v>0.1904761904761905</v>
+        <v>0.1906614785992218</v>
       </c>
       <c r="L11">
-        <v>0.5714285714285714</v>
+        <v>0.5680933852140078</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02164502164502164</v>
+        <v>0.01945525291828794</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7279411764705882</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.25</v>
+        <v>0.2466666666666667</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02205882352941177</v>
+        <v>0.02</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6486486486486487</v>
+        <v>0.6341463414634146</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2702702702702703</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08108108108108109</v>
+        <v>0.07317073170731707</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01395348837209302</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.172093023255814</v>
+        <v>0.1731601731601732</v>
       </c>
       <c r="I15">
-        <v>0.05116279069767442</v>
+        <v>0.05627705627705628</v>
       </c>
       <c r="J15">
-        <v>0.386046511627907</v>
+        <v>0.3766233766233766</v>
       </c>
       <c r="K15">
-        <v>0.05581395348837209</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004651162790697674</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05581395348837209</v>
+        <v>0.05627705627705628</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2604651162790698</v>
+        <v>0.2640692640692641</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01764705882352941</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1705882352941177</v>
+        <v>0.1701030927835052</v>
       </c>
       <c r="I16">
-        <v>0.08235294117647059</v>
+        <v>0.07216494845360824</v>
       </c>
       <c r="J16">
-        <v>0.4588235294117647</v>
+        <v>0.4690721649484536</v>
       </c>
       <c r="K16">
-        <v>0.04705882352941176</v>
+        <v>0.05154639175257732</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07058823529411765</v>
+        <v>0.06701030927835051</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1529411764705882</v>
+        <v>0.1443298969072165</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01606425702811245</v>
+        <v>0.01444043321299639</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1907630522088354</v>
+        <v>0.1931407942238267</v>
       </c>
       <c r="I17">
-        <v>0.07429718875502007</v>
+        <v>0.0776173285198556</v>
       </c>
       <c r="J17">
-        <v>0.4457831325301205</v>
+        <v>0.4476534296028881</v>
       </c>
       <c r="K17">
-        <v>0.06425702811244979</v>
+        <v>0.06137184115523465</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01807228915662651</v>
+        <v>0.01805054151624549</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07228915662650602</v>
+        <v>0.06859205776173286</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1184738955823293</v>
+        <v>0.1191335740072202</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.006134969325153374</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1779141104294479</v>
+        <v>0.1722222222222222</v>
       </c>
       <c r="I18">
-        <v>0.049079754601227</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="J18">
-        <v>0.5153374233128835</v>
+        <v>0.5055555555555555</v>
       </c>
       <c r="K18">
-        <v>0.04294478527607362</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01226993865030675</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.049079754601227</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.147239263803681</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.006344171292624901</v>
+        <v>0.006419400855920114</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2307692307692308</v>
+        <v>0.2282453637660485</v>
       </c>
       <c r="I19">
-        <v>0.06582077716098335</v>
+        <v>0.06633380884450785</v>
       </c>
       <c r="J19">
-        <v>0.3901665344964314</v>
+        <v>0.3873038516405136</v>
       </c>
       <c r="K19">
-        <v>0.09912767644726407</v>
+        <v>0.09985734664764621</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02141157811260904</v>
+        <v>0.02068473609129814</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.001426533523537803</v>
       </c>
       <c r="O19">
-        <v>0.06661379857256146</v>
+        <v>0.06633380884450785</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.119746233148295</v>
+        <v>0.12339514978602</v>
       </c>
     </row>
   </sheetData>
